--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
   <si>
     <t>Create a country</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Deleting citizenship from Excel</t>
+  </si>
+  <si>
+    <t>07.09.22</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -511,6 +514,104 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519DE27-6A40-D544-A6A5-95B3491CE2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27FD6B9-8122-B44F-89EC-1D86E5F36A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,43 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Create a country</t>
   </si>
   <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>12.09.22</t>
+  </si>
+  <si>
+    <t>Create a country parameter data</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>06.09.22</t>
-  </si>
-  <si>
-    <t>Create a country parameter data</t>
-  </si>
-  <si>
-    <t>Create Country</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>Deleting citizenship from Excel</t>
   </si>
   <si>
     <t>Creating citizenship from Excel</t>
-  </si>
-  <si>
-    <t>Deleting citizenship from Excel</t>
-  </si>
-  <si>
-    <t>07.09.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,18 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -435,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -446,170 +437,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/IdeaProjects/MyCucumberPrjc/src/test/java/ApachePOI/resource/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>Create a country</t>
   </si>
@@ -44,12 +44,16 @@
   </si>
   <si>
     <t>Creating citizenship from Excel</t>
+  </si>
+  <si>
+    <t>16.09.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -403,8 +407,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -491,6 +495,174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="10">
   <si>
     <t>Create a country</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>16.09.22</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -663,6 +666,258 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
   <si>
     <t>Create a country</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>21.09.22</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -918,6 +927,104 @@
         <v>8</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
   <si>
     <t>Create a country</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>22.09.22</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1025,6 +1028,160 @@
         <v>11</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
   <si>
     <t>Create a country</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>22.09.22</t>
+  </si>
+  <si>
+    <t>23.09.22</t>
+  </si>
+  <si>
+    <t>24.09.22</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1182,6 +1188,202 @@
         <v>13</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="17">
   <si>
     <t>Create a country</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>24.09.22</t>
+  </si>
+  <si>
+    <t>25.09.22</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1384,6 +1387,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="18">
   <si>
     <t>Create a country</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>25.09.22</t>
+  </si>
+  <si>
+    <t>03.10.22</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1401,6 +1404,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="20">
   <si>
     <t>Create a country</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>03.10.22</t>
+  </si>
+  <si>
+    <t>12.10.22</t>
+  </si>
+  <si>
+    <t>Create a country  with parameter data</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1418,6 +1424,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="28">
   <si>
     <t>Create a country</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>Create a country  with parameter data</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>03.11.22</t>
+  </si>
+  <si>
+    <t>Create Country</t>
+  </si>
+  <si>
+    <t>Create a Nationality</t>
+  </si>
+  <si>
+    <t>16.11.22</t>
+  </si>
+  <si>
+    <t>Creating a country</t>
+  </si>
+  <si>
+    <t>Creating a country  with parameter data</t>
+  </si>
+  <si>
+    <t>Creating Country</t>
   </si>
 </sst>
 </file>
@@ -432,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1452,6 +1476,370 @@
         <v>18</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="29">
   <si>
     <t>Create a country</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Creating Country</t>
+  </si>
+  <si>
+    <t>27.12.22</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -1840,6 +1843,286 @@
         <v>24</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
